--- a/examples/datasheet/新手任务.xlsx
+++ b/examples/datasheet/新手任务.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\game-repo\TAKSi\examples\datasheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18697" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>array&lt;int&gt;</t>
-  </si>
-  <si>
     <t>map&lt;string uint32&gt;</t>
   </si>
   <si>
@@ -674,19 +676,17 @@
       </rPr>
       <t>row</t>
     </r>
+  </si>
+  <si>
+    <t>array&lt;int16&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,345 +702,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1048,251 +724,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1322,61 +756,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1634,291 +1024,290 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="20.5044247787611" customWidth="1"/>
-    <col min="4" max="4" width="16.1238938053097" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5044247787611" customWidth="1"/>
-    <col min="6" max="8" width="32.8761061946903" customWidth="1"/>
+    <col min="2" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="8" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" ht="13.9" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" ht="13.9" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" ht="13.9" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" ht="13.9" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" ht="13.9" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" ht="13.9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" ht="13.9" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" ht="13.9" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="19.3716814159292" customWidth="1"/>
-    <col min="3" max="3" width="18.6283185840708" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" ht="13.9" spans="1:2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1926,87 +1315,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="13.9" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="13.9" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/datasheet/新手任务.xlsx
+++ b/examples/datasheet/新手任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23940" windowHeight="11655"/>
+    <workbookView windowWidth="24465" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="NewbieGuideDefine" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>完成步骤</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -31,34 +49,16 @@
     <t>Goods</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>#Description</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>array&lt;int16&gt;</t>
-  </si>
-  <si>
-    <t>map&lt;string uint32&gt;</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>任务类型</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>完成步骤</t>
-  </si>
-  <si>
-    <t>物品</t>
-  </si>
-  <si>
-    <t>描述</t>
+    <t>int16[]</t>
+  </si>
+  <si>
+    <t>string,uint32</t>
   </si>
   <si>
     <t>Guide_01</t>
@@ -180,18 +180,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -208,6 +214,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -216,15 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,21 +260,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,14 +298,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -276,13 +305,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -292,20 +323,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,32 +344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,187 +367,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +558,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,6 +587,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,15 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,21 +635,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,25 +658,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,148 +676,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,235 +1154,237 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="19" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="8" width="32.875" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="7" max="16384" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" ht="17.25" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:6">
-      <c r="A5" s="3" t="s">
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:6">
-      <c r="A6" s="3" t="s">
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:6">
-      <c r="A8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:6">
-      <c r="A9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:6">
-      <c r="A10" s="3" t="s">
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:6">
-      <c r="A11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>52</v>
       </c>
     </row>

--- a/examples/datasheet/新手任务.xlsx
+++ b/examples/datasheet/新手任务.xlsx
@@ -58,7 +58,7 @@
     <t>int16[]</t>
   </si>
   <si>
-    <t>string,uint32</t>
+    <t>&lt;string,uint32&gt;</t>
   </si>
   <si>
     <t>Guide_01</t>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="19" customHeight="1" outlineLevelCol="5"/>

--- a/examples/datasheet/新手任务.xlsx
+++ b/examples/datasheet/新手任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24465" windowHeight="11790"/>
+    <workbookView windowWidth="25455" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="NewbieGuideDefine" sheetId="1" r:id="rId1"/>
@@ -14,30 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>任务类型</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>完成步骤</t>
-  </si>
-  <si>
-    <t>物品</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>Target</t>
@@ -46,7 +31,7 @@
     <t>Accomplishment</t>
   </si>
   <si>
-    <t>Goods</t>
+    <t>RewardGoods</t>
   </si>
   <si>
     <t>#Description</t>
@@ -55,7 +40,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>int16[]</t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>&lt;string,uint32&gt;</t>
@@ -806,31 +794,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1151,24 +1136,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="19" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="19" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
-    <col min="7" max="16384" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="21.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="13.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1187,205 +1172,215 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>24</v>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
